--- a/Net_switching/estadisticas.xlsx
+++ b/Net_switching/estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Documents\GitHub\collado_ortega_telematics\Net_switching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F46BD-BF59-4A18-85F3-B2F7D8F45B86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326CF977-9767-4FA0-9370-5CBD7D586179}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA7FA0A-50C1-4A7A-B6BA-B251FAF47C00}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lower Limit</t>
   </si>
@@ -79,19 +79,37 @@
   </si>
   <si>
     <t>Intervalo de confianza</t>
+  </si>
+  <si>
+    <t>(UL - LL) / 2</t>
+  </si>
+  <si>
+    <t>UL - M</t>
+  </si>
+  <si>
+    <t>M - LL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,11 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -131,8 +146,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,250 +471,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405B9B6D-A717-4B65-ACAB-44AF15A21D56}">
-  <dimension ref="A2:G25"/>
+  <dimension ref="B3:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C5" s="1">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D5" s="2">
         <v>5.5117053999999999E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E5" s="2">
         <v>7.3645946000000004E-2</v>
       </c>
-      <c r="F3">
-        <f>(D3-C3)/2</f>
+      <c r="G5" s="9">
+        <f>(E5-D5)/2</f>
         <v>9.2644460000000026E-3</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H5" s="9">
+        <f>(E5-D5)/2</f>
+        <v>9.2644460000000026E-3</v>
+      </c>
+      <c r="I5" s="9">
+        <f>C5-D5</f>
+        <v>9.2644459999999956E-3</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F4:F25" si="0">(D5-C5)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G6:G27" si="0">(E7-D7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>(E7-D7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" ref="I6:I27" si="1">C7-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C9" s="3">
         <v>0.35691496299999997</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D9" s="3">
         <v>0.29870243400000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E9" s="3">
         <v>0.41512749199999999</v>
       </c>
-      <c r="F7">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>5.8212528999999985E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="H9" s="9">
+        <f>(E9-D9)/2</f>
+        <v>5.8212528999999985E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8212528999999957E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C11" s="5">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D11" s="3">
         <v>5.8823593E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E11" s="3">
         <v>6.9939406999999995E-2</v>
       </c>
-      <c r="F9">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>5.5579069999999973E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="H11" s="9">
+        <f>(E11-D11)/2</f>
+        <v>5.5579069999999973E-3</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5579069999999939E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>(E13-D13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C15" s="3">
         <v>0.35691496299999997</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D15" s="3">
         <v>0.32199222399999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E15" s="3">
         <v>0.39183770299999998</v>
       </c>
-      <c r="F13">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>3.4922739499999994E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="H15" s="9">
+        <f>(E15-D15)/2</f>
+        <v>3.4922739499999994E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>3.492273899999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C17" s="3">
         <v>5.7044951000000003E-2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D17" s="3">
         <v>5.1594678999999997E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E17" s="3">
         <v>6.2495223000000003E-2</v>
       </c>
-      <c r="F15">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>5.4502720000000025E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H17" s="9">
+        <f>(E17-D17)/2</f>
+        <v>5.4502720000000025E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>5.450272000000006E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f>(E19-D19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C21" s="3">
         <v>0.31131213299999999</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D21" s="4">
         <v>0.27779336999999998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E21" s="3">
         <v>0.34483089500000003</v>
       </c>
-      <c r="F19">
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>3.3518762500000021E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="H21" s="9">
+        <f>(E21-D21)/2</f>
+        <v>3.3518762500000021E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3518763000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C23" s="3">
         <v>5.7406905000000001E-2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D23" s="3">
         <v>5.3594368000000003E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E23" s="3">
         <v>6.1219442999999998E-2</v>
       </c>
-      <c r="F21">
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>3.8125374999999975E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="H23" s="9">
+        <f>(E23-D23)/2</f>
+        <v>3.8125374999999975E-3</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8125369999999978E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D23">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F23">
-        <f>(D23-C23)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <f>(E25-D25)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C27" s="3">
         <v>0.307603982</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D27" s="3">
         <v>0.286493259</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E27" s="3">
         <v>0.328714705</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1110722999999998E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f>(E27-D27)/2</f>
+        <v>2.1110722999999998E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
         <v>2.1110722999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Net_switching/estadisticas.xlsx
+++ b/Net_switching/estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Documents\GitHub\collado_ortega_telematics\Net_switching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326CF977-9767-4FA0-9370-5CBD7D586179}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F6986-D220-41E4-9DC0-7BD022479B08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA7FA0A-50C1-4A7A-B6BA-B251FAF47C00}"/>
   </bookViews>
@@ -94,11 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,17 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -155,8 +143,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +465,7 @@
   <dimension ref="B3:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,64 +477,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>5.5117053999999999E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>7.3645946000000004E-2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <f>(E5-D5)/2</f>
         <v>9.2644460000000026E-3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <f>(E5-D5)/2</f>
         <v>9.2644460000000026E-3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <f>C5-D5</f>
         <v>9.2644459999999956E-3</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -555,88 +546,88 @@
       <c r="E7">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" ref="G6:G27" si="0">(E7-D7)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G27" si="0">(E7-D7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <f>(E7-D7)/2</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9">
-        <f t="shared" ref="I6:I27" si="1">C7-D7</f>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7:I27" si="1">C7-D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0.35691496299999997</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.29870243400000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.41512749199999999</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>5.8212528999999985E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <f>(E9-D9)/2</f>
         <v>5.8212528999999985E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>5.8212528999999957E-2</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>5.8823593E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>6.9939406999999995E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>5.5579069999999973E-3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <f>(E11-D11)/2</f>
         <v>5.5579069999999973E-3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>5.5579069999999939E-3</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13">
@@ -648,88 +639,91 @@
       <c r="E13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <f>(E13-D13)/2</f>
         <v>0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>0.35691496299999997</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>0.32199222399999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.39183770299999998</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>3.4922739499999994E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <f>(E15-D15)/2</f>
         <v>3.4922739499999994E-2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>3.492273899999998E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>5.7044951000000003E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>5.1594678999999997E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>6.2495223000000003E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>5.4502720000000025E-3</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4">
         <f>(E17-D17)/2</f>
         <v>5.4502720000000025E-3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>5.450272000000006E-3</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19">
@@ -741,88 +735,91 @@
       <c r="E19">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <f>(E19-D19)/2</f>
         <v>0</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>0.31131213299999999</v>
       </c>
       <c r="D21" s="4">
         <v>0.27779336999999998</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.34483089500000003</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>3.3518762500000021E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="4">
         <f>(E21-D21)/2</f>
         <v>3.3518762500000021E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="4">
         <f t="shared" si="1"/>
         <v>3.3518763000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>5.7406905000000001E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>5.3594368000000003E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>6.1219442999999998E-2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>3.8125374999999975E-3</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="4">
         <f>(E23-D23)/2</f>
         <v>3.8125374999999975E-3</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
         <v>3.8125369999999978E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25">
@@ -834,46 +831,46 @@
       <c r="E25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <f>(E25-D25)/2</f>
         <v>0</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>0.307603982</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>0.286493259</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>0.328714705</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>2.1110722999999998E-2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="4">
         <f>(E27-D27)/2</f>
         <v>2.1110722999999998E-2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="4">
         <f t="shared" si="1"/>
         <v>2.1110722999999998E-2</v>
       </c>

--- a/Net_switching/estadisticas.xlsx
+++ b/Net_switching/estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Documents\GitHub\collado_ortega_telematics\Net_switching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F6986-D220-41E4-9DC0-7BD022479B08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBEFA85-611C-4535-8DED-A69DAC5E3CF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA7FA0A-50C1-4A7A-B6BA-B251FAF47C00}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lower Limit</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>M - LL</t>
+  </si>
+  <si>
+    <t>Comprobación</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,25 +137,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,21 +479,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405B9B6D-A717-4B65-ACAB-44AF15A21D56}">
   <dimension ref="B3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -502,39 +522,43 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>5.5117053999999999E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>7.3645946000000004E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>(E5-D5)/2</f>
         <v>9.2644460000000026E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>(E5-D5)/2</f>
         <v>9.2644460000000026E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f>C5-D5</f>
         <v>9.2644459999999956E-3</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="7">
+        <f>G5/C5</f>
+        <v>0.1438991946444243</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -546,88 +570,103 @@
       <c r="E7">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" ref="G7:G27" si="0">(E7-D7)/2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>(E7-D7)/2</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" ref="I7:I27" si="1">C7-D7</f>
         <v>0</v>
       </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K6:K27" si="2">G7/C7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.35691496299999997</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.29870243400000002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.41512749199999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>5.8212528999999985E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>(E9-D9)/2</f>
         <v>5.8212528999999985E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>5.8212528999999957E-2</v>
       </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.163099155358191</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6.4381499999999994E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>5.8823593E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6.9939406999999995E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>5.5579069999999973E-3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>(E11-D11)/2</f>
         <v>5.5579069999999973E-3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>5.5579069999999939E-3</v>
       </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>8.6327702833888589E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13">
@@ -639,91 +678,106 @@
       <c r="E13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>(E13-D13)/2</f>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.35691496299999997</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.32199222399999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.39183770299999998</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>3.4922739499999994E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>(E15-D15)/2</f>
         <v>3.4922739499999994E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>3.492273899999998E-2</v>
       </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>9.7846106552837334E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5.7044951000000003E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>5.1594678999999997E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>6.2495223000000003E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>5.4502720000000025E-3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>(E17-D17)/2</f>
         <v>5.4502720000000025E-3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>5.450272000000006E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>9.5543460103945085E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19">
@@ -735,91 +789,106 @@
       <c r="E19">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>(E19-D19)/2</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="K19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.31131213299999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.27779336999999998</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.34483089500000003</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>3.3518762500000021E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f>(E21-D21)/2</f>
         <v>3.3518762500000021E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>3.3518763000000007E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="K21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.10766930982416938</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>5.7406905000000001E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>5.3594368000000003E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>6.1219442999999998E-2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>3.8125374999999975E-3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>(E23-D23)/2</f>
         <v>3.8125374999999975E-3</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <f t="shared" si="1"/>
         <v>3.8125369999999978E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="K23" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6412524765095723E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25">
@@ -831,51 +900,68 @@
       <c r="E25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f>(E25-D25)/2</f>
         <v>0</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="K25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0.307603982</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>0.286493259</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.328714705</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>2.1110722999999998E-2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>(E27-D27)/2</f>
         <v>2.1110722999999998E-2</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>2.1110722999999998E-2</v>
       </c>
+      <c r="K27" s="7">
+        <f t="shared" si="2"/>
+        <v>6.8629550445806639E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K5:K27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Net_switching/estadisticas.xlsx
+++ b/Net_switching/estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Ortega\Documents\GitHub\collado_ortega_telematics\Net_switching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBEFA85-611C-4535-8DED-A69DAC5E3CF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E49B0-E484-4A8D-9E8C-2718920A6E8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA7FA0A-50C1-4A7A-B6BA-B251FAF47C00}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Lower Limit</t>
   </si>
@@ -91,6 +91,53 @@
   </si>
   <si>
     <t>Comprobación</t>
+  </si>
+  <si>
+    <t>Cálculos</t>
+  </si>
+  <si>
+    <r>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Lpa</t>
+  </si>
+  <si>
+    <t>Lpb</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>μa</t>
+  </si>
+  <si>
+    <t>1/μa</t>
+  </si>
+  <si>
+    <t>1/μb</t>
+  </si>
+  <si>
+    <t>μb</t>
+  </si>
+  <si>
+    <t>ρa</t>
+  </si>
+  <si>
+    <t>ρb</t>
   </si>
 </sst>
 </file>
@@ -100,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,10 +201,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,13 +537,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405B9B6D-A717-4B65-ACAB-44AF15A21D56}">
-  <dimension ref="B3:K27"/>
+  <dimension ref="B3:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -492,11 +556,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
@@ -546,7 +610,7 @@
         <f>C5-D5</f>
         <v>9.2644459999999956E-3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>G5/C5</f>
         <v>0.1438991946444243</v>
       </c>
@@ -571,7 +635,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G27" si="0">(E7-D7)/2</f>
+        <f t="shared" ref="G7:G33" si="0">(E7-D7)/2</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -579,11 +643,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I7:I27" si="1">C7-D7</f>
+        <f t="shared" ref="I7:I33" si="1">C7-D7</f>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K6:K27" si="2">G7/C7</f>
+        <f t="shared" ref="K7:K33" si="2">G7/C7</f>
         <v>0</v>
       </c>
     </row>
@@ -618,7 +682,7 @@
         <f t="shared" si="1"/>
         <v>5.8212528999999957E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>0.163099155358191</v>
       </c>
@@ -654,7 +718,7 @@
         <f t="shared" si="1"/>
         <v>5.5579069999999939E-3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="2"/>
         <v>8.6327702833888589E-2</v>
       </c>
@@ -726,7 +790,7 @@
         <f t="shared" si="1"/>
         <v>3.492273899999998E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="2"/>
         <v>9.7846106552837334E-2</v>
       </c>
@@ -765,7 +829,7 @@
         <f t="shared" si="1"/>
         <v>5.450272000000006E-3</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="2"/>
         <v>9.5543460103945085E-2</v>
       </c>
@@ -837,7 +901,7 @@
         <f t="shared" si="1"/>
         <v>3.3518763000000007E-2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="2"/>
         <v>0.10766930982416938</v>
       </c>
@@ -876,7 +940,7 @@
         <f t="shared" si="1"/>
         <v>3.8125369999999978E-3</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="2"/>
         <v>6.6412524765095723E-2</v>
       </c>
@@ -948,16 +1012,351 @@
         <f t="shared" si="1"/>
         <v>2.1110722999999998E-2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="2"/>
         <v>6.8629550445806639E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.8703453E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.6797184000000002E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0609721999999999E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9062689999999986E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H28:H33" si="3">(E29-D29)/2</f>
+        <v>1.9062689999999986E-3</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9062689999999986E-3</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6412532317975767E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.27708160799999998</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.25847334700000002</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.29568986899999999</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8608260999999987E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8608260999999987E-2</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8608260999999959E-2</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7158051861746046E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <f>1/C40</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <f>D40*$D$52</f>
+        <v>0.125</v>
+      </c>
+      <c r="F40" s="2">
+        <f>D40*$D$54</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D46" si="4">1/C41</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <f>D41*$D$52</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <f>D41*$D$54</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="2">
+        <f>D42*$D$52</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <f>D42*$D$54</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="2">
+        <f>D43*$D$52</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <f>D43*$D$54</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E44" s="2">
+        <f>D44*$D$52</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <f>D44*$D$54</f>
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="E45" s="2">
+        <f>D45*$D$52</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F45" s="2">
+        <f>D45*$D$54</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="2">
+        <f>D46*$D$52</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F46" s="2">
+        <f>D46*$D$54</f>
+        <v>1.2500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <f>1000*8</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <f>200*8</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <f>D48/D50</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <f>1/D52</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <f>D49/D50</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <f>1/D54</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K27">
+  <conditionalFormatting sqref="K5:K33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
